--- a/experiments/ongoing exp/adult-abx-exp5/dissection.xlsx
+++ b/experiments/ongoing exp/adult-abx-exp5/dissection.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Chercheurs\Santos_Manuela\Thibault M\gut-microbiota-iron\experiments\ongoing exp\adult-abx-exp5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{80BED009-4E1C-49DE-9BD7-D35B411CEF8F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40220CC7-5174-4DED-9811-692520F76F74}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7380" xr2:uid="{B5BC487F-FEDB-4094-A250-83D11D875085}"/>
   </bookViews>
@@ -167,13 +167,13 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -491,7 +491,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -517,178 +517,302 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="C2" s="1">
+        <v>24.8</v>
+      </c>
+      <c r="D2" s="1">
+        <v>6.17</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1.3509</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.10299999999999999</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="4"/>
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="C3" s="1">
+        <v>24</v>
+      </c>
+      <c r="D3" s="1">
+        <v>6.09</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1.1216999999999999</v>
+      </c>
+      <c r="F3" s="1">
+        <v>7.3899999999999993E-2</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="C4" s="1">
+        <v>27.2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1.7196</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.22020000000000001</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="4"/>
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="C5" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="D5" s="1">
+        <v>6.23</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1.21</v>
+      </c>
+      <c r="F5" s="1">
+        <v>8.0699999999999994E-2</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="C6" s="1">
+        <v>24.4</v>
+      </c>
+      <c r="D6" s="1">
+        <v>6.03</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1.135</v>
+      </c>
+      <c r="F6" s="1">
+        <v>9.4200000000000006E-2</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4" t="s">
+      <c r="A7" s="4"/>
+      <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="C7" s="1">
+        <v>29.4</v>
+      </c>
+      <c r="D7" s="1">
+        <v>5.71</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1.5749</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.1157</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="C8" s="1">
+        <v>28.2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>6.07</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1.3631</v>
+      </c>
+      <c r="F8" s="1">
+        <v>8.9399999999999993E-2</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4" t="s">
+      <c r="A9" s="4"/>
+      <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="C9" s="1">
+        <v>24.1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>6.12</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1.1264000000000001</v>
+      </c>
+      <c r="F9" s="1">
+        <v>8.2699999999999996E-2</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="A10" s="3">
         <v>7</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="C10" s="1">
+        <v>25.3</v>
+      </c>
+      <c r="D10" s="1">
+        <v>6.29</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1.2453000000000001</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.14599999999999999</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4" t="s">
+      <c r="A11" s="4"/>
+      <c r="B11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="C11" s="1">
+        <v>28</v>
+      </c>
+      <c r="D11" s="1">
+        <v>6.38</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1.4756</v>
+      </c>
+      <c r="F11" s="1">
+        <v>9.4500000000000001E-2</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="A12" s="3">
         <v>9</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="2">
         <v>36679</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="C12" s="1">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="D12" s="1">
+        <v>6.28</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1.8702000000000001</v>
+      </c>
+      <c r="F12" s="1">
+        <v>9.5500000000000002E-2</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4" t="s">
+      <c r="A13" s="4"/>
+      <c r="B13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="C13" s="1">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="D13" s="1">
+        <v>7.45</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1.9762999999999999</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.1487</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="A14" s="3">
         <v>10</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="C14" s="1">
+        <v>23.1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>6.11</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1.2890999999999999</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.224</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4" t="s">
+      <c r="A15" s="4"/>
+      <c r="B15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="C15" s="1">
+        <v>26.8</v>
+      </c>
+      <c r="D15" s="1">
+        <v>5.83</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1.3466</v>
+      </c>
+      <c r="F15" s="1">
+        <v>9.1300000000000006E-2</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+      <c r="A16" s="3">
         <v>12</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="C16" s="1">
+        <v>26</v>
+      </c>
+      <c r="D16" s="1">
+        <v>5.91</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1.2692000000000001</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.1009</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="4" t="s">
+      <c r="A17" s="4"/>
+      <c r="B17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="C17" s="1">
+        <v>25.2</v>
+      </c>
+      <c r="D17" s="1">
+        <v>5.77</v>
+      </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
